--- a/dataset-2/2-with_data_augmentation/results/genetic.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/genetic.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6666666666666666</v>
+        <v>0.2621951219512195</v>
       </c>
       <c r="C2">
-        <v>0.8571428571428571</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>0.3873873873873874</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.2992700729927008</v>
       </c>
       <c r="C3">
-        <v>0.8571428571428571</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="D3">
-        <v>0.7999999999999999</v>
+        <v>0.4205128205128206</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7142857142857143</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C4">
-        <v>0.7142857142857143</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="D4">
-        <v>0.7142857142857143</v>
+        <v>0.4041450777202072</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D5">
-        <v>0.8235294117647058</v>
+        <v>0.3595505617977529</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="C6">
-        <v>0.8571428571428571</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.4179104477611941</v>
       </c>
     </row>
   </sheetData>

--- a/dataset-2/2-with_data_augmentation/results/genetic.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/genetic.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2621951219512195</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="C2">
-        <v>0.7413793103448276</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="D2">
-        <v>0.3873873873873874</v>
+        <v>0.3902439024390243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2992700729927008</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="C3">
-        <v>0.7068965517241379</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="D3">
-        <v>0.4205128205128206</v>
+        <v>0.4421052631578947</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2888888888888889</v>
+        <v>0.3306451612903226</v>
       </c>
       <c r="C4">
-        <v>0.6724137931034483</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="D4">
-        <v>0.4041450777202072</v>
+        <v>0.4505494505494505</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2666666666666667</v>
+        <v>0.2709677419354839</v>
       </c>
       <c r="C5">
-        <v>0.5517241379310345</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="D5">
-        <v>0.3595505617977529</v>
+        <v>0.3943661971830986</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2937062937062937</v>
+        <v>0.2606382978723404</v>
       </c>
       <c r="C6">
-        <v>0.7241379310344828</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="D6">
-        <v>0.4179104477611941</v>
+        <v>0.3983739837398374</v>
       </c>
     </row>
   </sheetData>
